--- a/20200616 MLF 2020-2021.xlsx
+++ b/20200616 MLF 2020-2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\pythonprograms\Renewables_Australia\For publishing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\pythonprograms\Renewables_Australia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D490967-D227-4BD5-8D9B-D45A6925BC83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEFC5C1-E5D7-4ECA-8EBE-7E671F48D877}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38235" windowHeight="20985" activeTab="1" xr2:uid="{C80BF030-6A9A-481A-9D48-A9F186EFD383}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="25830" windowHeight="15120" activeTab="1" xr2:uid="{C80BF030-6A9A-481A-9D48-A9F186EFD383}"/>
   </bookViews>
   <sheets>
     <sheet name="MLF_table" sheetId="4" r:id="rId1"/>
@@ -25056,8 +25056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E378714-CAFF-4E8D-9BB6-0063B14044D3}">
   <dimension ref="A1:L320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25710,10 +25710,10 @@
         <v>1866</v>
       </c>
       <c r="B46">
-        <v>-33.833391399999996</v>
+        <v>-19.839446918587001</v>
       </c>
       <c r="C46">
-        <v>138.6120042</v>
+        <v>147.21031614594</v>
       </c>
       <c r="D46" t="s">
         <v>1523</v>
@@ -25724,10 +25724,10 @@
         <v>1599</v>
       </c>
       <c r="B47">
-        <v>-33.833391399999996</v>
+        <v>-19.839446918587001</v>
       </c>
       <c r="C47">
-        <v>138.6120042</v>
+        <v>147.21031614594</v>
       </c>
       <c r="D47" t="s">
         <v>1523</v>
